--- a/Analysis/HashtagsPerDay.xlsx
+++ b/Analysis/HashtagsPerDay.xlsx
@@ -91,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -99,6 +99,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2853,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J370"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10271,6 +10272,9 @@
         <f t="shared" si="16"/>
         <v>75083</v>
       </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="B371" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C370">

--- a/Analysis/HashtagsPerDay.xlsx
+++ b/Analysis/HashtagsPerDay.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -91,20 +91,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -167,1111 +187,1111 @@
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="369"/>
                 <c:pt idx="0">
+                  <c:v>41001.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41002.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41003.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41004.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41005.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41006.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41007.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41008.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41010.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41011.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41012.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41013.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41014.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41015.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41016.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41017.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41018.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41019.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41020.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41021.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41022.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41023.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41024.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41025.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41026.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41027.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41028.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41029.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41030.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41031.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41032.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41033.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41034.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41035.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41036.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41037.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41038.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41039.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41040.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41041.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41042.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41043.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41044.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41045.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41046.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41047.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41048.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41049.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41050.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41051.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41052.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41053.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41054.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41055.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41056.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41057.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41058.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41059.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41060.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41062.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41063.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41064.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41065.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41066.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41067.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41068.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41069.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41070.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41071.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41072.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41073.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41074.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41075.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41076.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41077.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41078.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41079.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41080.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41081.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41082.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41083.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41084.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41085.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41086.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41087.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41088.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41089.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41090.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41092.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41093.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41094.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41095.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41096.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41097.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41098.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41099.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
                   <c:v>41149.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="149">
                   <c:v>41150.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="150">
                   <c:v>41151.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="151">
                   <c:v>41152.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="152">
                   <c:v>41153.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="153">
                   <c:v>41154.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="154">
                   <c:v>41155.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="155">
                   <c:v>41156.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="156">
                   <c:v>41157.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="157">
                   <c:v>41158.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="158">
                   <c:v>41159.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="159">
                   <c:v>41160.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="160">
                   <c:v>41161.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="161">
                   <c:v>41162.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="162">
                   <c:v>41163.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="163">
                   <c:v>41164.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="164">
                   <c:v>41165.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="165">
                   <c:v>41166.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="166">
                   <c:v>41167.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="167">
                   <c:v>41168.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="168">
                   <c:v>41169.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="169">
                   <c:v>41170.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="170">
                   <c:v>41171.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="171">
                   <c:v>41172.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="172">
                   <c:v>41173.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="173">
                   <c:v>41174.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="174">
                   <c:v>41175.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="175">
                   <c:v>41176.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="176">
                   <c:v>41177.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="177">
                   <c:v>41178.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="178">
                   <c:v>41179.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="179">
                   <c:v>41180.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="180">
                   <c:v>41181.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="181">
                   <c:v>41182.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="182">
                   <c:v>41183.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="183">
                   <c:v>41184.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="184">
                   <c:v>41185.0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="185">
                   <c:v>41186.0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="186">
                   <c:v>41187.0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="187">
                   <c:v>41188.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="188">
                   <c:v>41189.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="189">
                   <c:v>41190.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="190">
                   <c:v>41191.0</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="191">
                   <c:v>41192.0</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="192">
                   <c:v>41193.0</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="193">
                   <c:v>41194.0</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="194">
                   <c:v>41195.0</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="195">
                   <c:v>41196.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="196">
                   <c:v>41197.0</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="197">
                   <c:v>41198.0</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="198">
                   <c:v>41199.0</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="199">
                   <c:v>41200.0</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="200">
                   <c:v>41201.0</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="201">
                   <c:v>41202.0</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="202">
                   <c:v>41203.0</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="203">
                   <c:v>41204.0</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="204">
                   <c:v>41205.0</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="205">
                   <c:v>41206.0</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="206">
                   <c:v>41207.0</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="207">
                   <c:v>41208.0</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="208">
                   <c:v>41209.0</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="209">
                   <c:v>41210.0</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="210">
                   <c:v>41211.0</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="211">
                   <c:v>41212.0</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="212">
                   <c:v>41213.0</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="213">
                   <c:v>41214.0</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="214">
                   <c:v>41215.0</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="215">
                   <c:v>41216.0</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="216">
                   <c:v>41217.0</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="217">
                   <c:v>41218.0</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="218">
                   <c:v>41219.0</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="219">
                   <c:v>41220.0</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="220">
                   <c:v>41221.0</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="221">
                   <c:v>41222.0</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="222">
                   <c:v>41223.0</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="223">
                   <c:v>41224.0</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="224">
                   <c:v>41225.0</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="225">
                   <c:v>41226.0</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="226">
                   <c:v>41227.0</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="227">
                   <c:v>41228.0</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="228">
                   <c:v>41229.0</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="229">
                   <c:v>41230.0</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="230">
                   <c:v>41231.0</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="231">
                   <c:v>41232.0</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="232">
                   <c:v>41233.0</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="233">
                   <c:v>41234.0</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="234">
                   <c:v>41235.0</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="235">
                   <c:v>41236.0</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="236">
                   <c:v>41237.0</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="237">
                   <c:v>41238.0</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="238">
                   <c:v>41239.0</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="239">
                   <c:v>41240.0</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="240">
                   <c:v>41241.0</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="241">
                   <c:v>41242.0</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="242">
                   <c:v>41243.0</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="243">
                   <c:v>41244.0</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="244">
                   <c:v>41245.0</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="245">
                   <c:v>41246.0</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="246">
                   <c:v>41247.0</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="247">
                   <c:v>41248.0</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="248">
                   <c:v>41249.0</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="249">
                   <c:v>41250.0</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="250">
                   <c:v>41251.0</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="251">
                   <c:v>41252.0</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="252">
                   <c:v>41253.0</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="253">
                   <c:v>41254.0</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="254">
                   <c:v>41255.0</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="255">
                   <c:v>41256.0</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="256">
                   <c:v>41257.0</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="257">
                   <c:v>41258.0</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="258">
                   <c:v>41259.0</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="259">
                   <c:v>41260.0</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="260">
                   <c:v>41261.0</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="261">
                   <c:v>41262.0</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="262">
                   <c:v>41263.0</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="263">
                   <c:v>41264.0</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="264">
                   <c:v>41265.0</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="265">
                   <c:v>41266.0</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="266">
                   <c:v>41267.0</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="267">
                   <c:v>41268.0</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="268">
                   <c:v>41269.0</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="269">
                   <c:v>41270.0</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="270">
                   <c:v>41271.0</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="271">
                   <c:v>41272.0</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="272">
                   <c:v>41273.0</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="273">
                   <c:v>41274.0</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="274">
                   <c:v>41275.0</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="275">
                   <c:v>41276.0</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="276">
                   <c:v>41277.0</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="277">
                   <c:v>41278.0</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="278">
                   <c:v>41279.0</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="279">
                   <c:v>41280.0</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="280">
                   <c:v>41281.0</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="281">
                   <c:v>41282.0</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="282">
                   <c:v>41283.0</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="283">
                   <c:v>41284.0</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="284">
                   <c:v>41285.0</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="285">
                   <c:v>41286.0</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="286">
                   <c:v>41287.0</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="287">
                   <c:v>41288.0</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="288">
                   <c:v>41289.0</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="289">
                   <c:v>41290.0</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="290">
                   <c:v>41291.0</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="291">
                   <c:v>41292.0</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="292">
                   <c:v>41293.0</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="293">
                   <c:v>41294.0</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="294">
                   <c:v>41295.0</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="295">
                   <c:v>41296.0</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="296">
                   <c:v>41297.0</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="297">
                   <c:v>41298.0</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="298">
                   <c:v>41299.0</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="299">
                   <c:v>41300.0</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="300">
                   <c:v>41301.0</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="301">
                   <c:v>41302.0</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="302">
                   <c:v>41303.0</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="303">
                   <c:v>41304.0</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="304">
                   <c:v>41305.0</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="305">
                   <c:v>41306.0</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="306">
                   <c:v>41307.0</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="307">
                   <c:v>41308.0</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="308">
                   <c:v>41309.0</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="309">
                   <c:v>41310.0</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="310">
                   <c:v>41311.0</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="311">
                   <c:v>41312.0</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="312">
                   <c:v>41313.0</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="313">
                   <c:v>41314.0</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="314">
                   <c:v>41315.0</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="315">
                   <c:v>41316.0</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="316">
                   <c:v>41317.0</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="317">
                   <c:v>41318.0</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="318">
                   <c:v>41319.0</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="319">
                   <c:v>41320.0</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="320">
                   <c:v>41321.0</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="321">
                   <c:v>41322.0</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="322">
                   <c:v>41323.0</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="323">
                   <c:v>41324.0</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="324">
                   <c:v>41325.0</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="325">
                   <c:v>41326.0</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="326">
                   <c:v>41327.0</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="327">
                   <c:v>41328.0</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="328">
                   <c:v>41329.0</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="329">
                   <c:v>41330.0</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="330">
                   <c:v>41331.0</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="331">
                   <c:v>41332.0</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="332">
                   <c:v>41333.0</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="333">
                   <c:v>41334.0</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="334">
                   <c:v>41335.0</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="335">
                   <c:v>41336.0</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="336">
                   <c:v>41337.0</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="337">
                   <c:v>41338.0</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="338">
                   <c:v>41339.0</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="339">
                   <c:v>41340.0</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="340">
                   <c:v>41341.0</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="341">
                   <c:v>41342.0</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="342">
                   <c:v>41343.0</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="343">
                   <c:v>41344.0</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="344">
                   <c:v>41345.0</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="345">
                   <c:v>41346.0</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="346">
                   <c:v>41347.0</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="347">
                   <c:v>41348.0</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="348">
                   <c:v>41349.0</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="349">
                   <c:v>41350.0</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="350">
                   <c:v>41351.0</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="351">
                   <c:v>41352.0</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="352">
                   <c:v>41353.0</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="353">
                   <c:v>41354.0</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="354">
                   <c:v>41355.0</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="355">
                   <c:v>41356.0</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="356">
                   <c:v>41357.0</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="357">
                   <c:v>41358.0</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="358">
                   <c:v>41359.0</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="359">
                   <c:v>41360.0</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="360">
                   <c:v>41361.0</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="361">
                   <c:v>41362.0</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="362">
                   <c:v>41363.0</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="363">
                   <c:v>41364.0</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="364">
                   <c:v>41365.0</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="365">
                   <c:v>41366.0</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="366">
                   <c:v>41367.0</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="367">
                   <c:v>41368.0</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="368">
                   <c:v>41369.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>41370.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>41371.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>41372.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>41373.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>41374.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>41375.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>41376.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>41377.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>41378.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>41379.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>41380.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>41381.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>41382.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>41383.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>41384.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>41385.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>41386.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>41387.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>41388.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>41389.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>41390.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>41391.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>41392.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>41393.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>41394.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>41395.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>41396.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>41397.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>41398.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>41399.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>41400.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>41401.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>41402.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>41403.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>41404.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>41405.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>41406.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>41407.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>41408.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>41409.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>41410.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>41411.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>41412.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>41413.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>41414.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>41415.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>41416.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>41417.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>41418.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>41419.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>41420.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>41421.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>41422.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>41423.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>41424.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>41425.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>41426.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>41427.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>41428.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>41429.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>41430.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>41431.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>41432.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>41433.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>41434.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>41435.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>41436.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>41437.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>41438.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>41439.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>41440.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>41441.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>41442.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>41443.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>41444.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>41445.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>41446.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>41447.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>41448.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>41449.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>41450.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>41451.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>41452.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>41453.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>41454.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>41455.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>41456.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>41457.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>41458.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>41459.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>41460.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>41461.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>41462.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>41463.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>41464.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>41465.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>41466.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>41467.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>41468.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>41469.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>41470.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>41471.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>41472.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>41473.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>41474.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>41475.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>41476.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>41477.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>41478.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>41479.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>41480.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>41481.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>41482.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>41483.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>41484.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>41485.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>41486.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>41487.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>41488.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>41489.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>41490.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>41491.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>41492.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>41493.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>41494.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>41495.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>41496.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>41497.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>41498.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>41499.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>41500.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>41501.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>41502.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>41503.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>41504.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>41505.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>41506.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>41507.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>41508.0</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>41509.0</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>41510.0</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>41511.0</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>41512.0</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>41513.0</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>41514.0</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>41515.0</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>41516.0</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>41517.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,11 +2422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119895624"/>
-        <c:axId val="2119606056"/>
+        <c:axId val="2095936440"/>
+        <c:axId val="2095194088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119895624"/>
+        <c:axId val="2095936440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,12 +2460,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119606056"/>
+        <c:crossAx val="2095194088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119606056"/>
+        <c:axId val="2095194088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119895624"/>
+        <c:crossAx val="2095936440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2856,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="B371" sqref="B371"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="H244" sqref="H244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2892,16 +2912,16 @@
       <c r="B2">
         <v>21532</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>A2-$A$2+$H$2</f>
-        <v>41149</v>
+        <v>41001</v>
       </c>
       <c r="F2">
         <f>B2</f>
         <v>21532</v>
       </c>
       <c r="H2" s="3">
-        <v>41149</v>
+        <v>41001</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -2918,9 +2938,9 @@
         <f>A3-A2</f>
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E66" si="0">A3-$A$2+$H$2</f>
-        <v>41150</v>
+        <v>41002</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">B3</f>
@@ -2941,9 +2961,9 @@
         <f t="shared" ref="C4:C67" si="2">A4-A3</f>
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>41151</v>
+        <v>41003</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
@@ -2964,9 +2984,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>41152</v>
+        <v>41004</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -2984,9 +3004,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>41153</v>
+        <v>41005</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -3004,9 +3024,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>41154</v>
+        <v>41006</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -3024,9 +3044,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>41155</v>
+        <v>41007</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -3044,9 +3064,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>41156</v>
+        <v>41008</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -3064,9 +3084,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>41157</v>
+        <v>41009</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -3084,9 +3104,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>41158</v>
+        <v>41010</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -3104,9 +3124,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>41159</v>
+        <v>41011</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -3124,9 +3144,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>41160</v>
+        <v>41012</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -3144,9 +3164,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>41161</v>
+        <v>41013</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -3164,9 +3184,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>41162</v>
+        <v>41014</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -3184,9 +3204,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>41163</v>
+        <v>41015</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -3204,9 +3224,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>41164</v>
+        <v>41016</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -3224,9 +3244,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>41165</v>
+        <v>41017</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -3244,9 +3264,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>41166</v>
+        <v>41018</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
@@ -3264,9 +3284,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>41167</v>
+        <v>41019</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -3284,9 +3304,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>41168</v>
+        <v>41020</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
@@ -3304,9 +3324,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>41169</v>
+        <v>41021</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
@@ -3324,9 +3344,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>41170</v>
+        <v>41022</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
@@ -3344,9 +3364,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>41171</v>
+        <v>41023</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
@@ -3364,9 +3384,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>41172</v>
+        <v>41024</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
@@ -3384,9 +3404,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>41173</v>
+        <v>41025</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
@@ -3404,9 +3424,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>41174</v>
+        <v>41026</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
@@ -3424,9 +3444,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>41175</v>
+        <v>41027</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
@@ -3444,9 +3464,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>41176</v>
+        <v>41028</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
@@ -3464,9 +3484,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
-        <v>41177</v>
+        <v>41029</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
@@ -3484,9 +3504,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
-        <v>41178</v>
+        <v>41030</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
@@ -3504,9 +3524,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>41179</v>
+        <v>41031</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
@@ -3524,9 +3544,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>41180</v>
+        <v>41032</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
@@ -3544,9 +3564,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="0"/>
-        <v>41181</v>
+        <v>41033</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
@@ -3564,9 +3584,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="0"/>
-        <v>41182</v>
+        <v>41034</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
@@ -3584,9 +3604,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="0"/>
-        <v>41183</v>
+        <v>41035</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
@@ -3604,9 +3624,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="0"/>
-        <v>41184</v>
+        <v>41036</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
@@ -3624,9 +3644,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="0"/>
-        <v>41185</v>
+        <v>41037</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
@@ -3644,9 +3664,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>41038</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -3664,9 +3684,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f t="shared" si="0"/>
-        <v>41187</v>
+        <v>41039</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
@@ -3684,9 +3704,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <f t="shared" si="0"/>
-        <v>41188</v>
+        <v>41040</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
@@ -3704,9 +3724,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <f t="shared" si="0"/>
-        <v>41189</v>
+        <v>41041</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
@@ -3724,9 +3744,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>41190</v>
+        <v>41042</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
@@ -3744,9 +3764,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>41191</v>
+        <v>41043</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
@@ -3764,9 +3784,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <f t="shared" si="0"/>
-        <v>41192</v>
+        <v>41044</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
@@ -3784,9 +3804,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>41193</v>
+        <v>41045</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
@@ -3804,9 +3824,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f t="shared" si="0"/>
-        <v>41194</v>
+        <v>41046</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
@@ -3824,9 +3844,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f t="shared" si="0"/>
-        <v>41195</v>
+        <v>41047</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
@@ -3844,9 +3864,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <f t="shared" si="0"/>
-        <v>41196</v>
+        <v>41048</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
@@ -3864,9 +3884,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <f t="shared" si="0"/>
-        <v>41197</v>
+        <v>41049</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
@@ -3884,9 +3904,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <f t="shared" si="0"/>
-        <v>41198</v>
+        <v>41050</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
@@ -3904,9 +3924,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f t="shared" si="0"/>
-        <v>41199</v>
+        <v>41051</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
@@ -3924,9 +3944,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <f t="shared" si="0"/>
-        <v>41200</v>
+        <v>41052</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
@@ -3944,9 +3964,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <f t="shared" si="0"/>
-        <v>41201</v>
+        <v>41053</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
@@ -3964,9 +3984,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <f t="shared" si="0"/>
-        <v>41202</v>
+        <v>41054</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
@@ -3984,9 +4004,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <f t="shared" si="0"/>
-        <v>41203</v>
+        <v>41055</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
@@ -4004,9 +4024,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <f t="shared" si="0"/>
-        <v>41204</v>
+        <v>41056</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
@@ -4024,9 +4044,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <f t="shared" si="0"/>
-        <v>41205</v>
+        <v>41057</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
@@ -4044,9 +4064,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <f t="shared" si="0"/>
-        <v>41206</v>
+        <v>41058</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
@@ -4064,9 +4084,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>41207</v>
+        <v>41059</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
@@ -4084,9 +4104,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>41208</v>
+        <v>41060</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
@@ -4104,9 +4124,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <f t="shared" si="0"/>
-        <v>41209</v>
+        <v>41061</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
@@ -4124,9 +4144,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <f t="shared" si="0"/>
-        <v>41210</v>
+        <v>41062</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
@@ -4144,9 +4164,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <f t="shared" si="0"/>
-        <v>41211</v>
+        <v>41063</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
@@ -4164,9 +4184,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <f t="shared" si="0"/>
-        <v>41212</v>
+        <v>41064</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
@@ -4184,9 +4204,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <f t="shared" si="0"/>
-        <v>41213</v>
+        <v>41065</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
@@ -4204,9 +4224,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <f t="shared" ref="E67:E130" si="3">A67-$A$2+$H$2</f>
-        <v>41214</v>
+        <v>41066</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" si="4">B67</f>
@@ -4224,9 +4244,9 @@
         <f t="shared" ref="C68:C132" si="5">A68-A67</f>
         <v>1</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <f t="shared" si="3"/>
-        <v>41215</v>
+        <v>41067</v>
       </c>
       <c r="F68">
         <f t="shared" si="4"/>
@@ -4244,9 +4264,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <f t="shared" si="3"/>
-        <v>41216</v>
+        <v>41068</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
@@ -4264,9 +4284,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <f t="shared" si="3"/>
-        <v>41217</v>
+        <v>41069</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
@@ -4284,9 +4304,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <f t="shared" si="3"/>
-        <v>41218</v>
+        <v>41070</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
@@ -4304,9 +4324,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <f t="shared" si="3"/>
-        <v>41219</v>
+        <v>41071</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
@@ -4324,9 +4344,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <f t="shared" si="3"/>
-        <v>41220</v>
+        <v>41072</v>
       </c>
       <c r="F73">
         <f t="shared" si="4"/>
@@ -4344,9 +4364,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <f t="shared" si="3"/>
-        <v>41221</v>
+        <v>41073</v>
       </c>
       <c r="F74">
         <f t="shared" si="4"/>
@@ -4364,9 +4384,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <f t="shared" si="3"/>
-        <v>41222</v>
+        <v>41074</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
@@ -4384,9 +4404,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <f t="shared" si="3"/>
-        <v>41223</v>
+        <v>41075</v>
       </c>
       <c r="F76">
         <f t="shared" si="4"/>
@@ -4404,9 +4424,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <f t="shared" si="3"/>
-        <v>41224</v>
+        <v>41076</v>
       </c>
       <c r="F77">
         <f t="shared" si="4"/>
@@ -4424,9 +4444,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <f t="shared" si="3"/>
-        <v>41225</v>
+        <v>41077</v>
       </c>
       <c r="F78">
         <f t="shared" si="4"/>
@@ -4444,9 +4464,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <f t="shared" si="3"/>
-        <v>41226</v>
+        <v>41078</v>
       </c>
       <c r="F79">
         <f t="shared" si="4"/>
@@ -4464,9 +4484,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <f t="shared" si="3"/>
-        <v>41227</v>
+        <v>41079</v>
       </c>
       <c r="F80">
         <f t="shared" si="4"/>
@@ -4484,9 +4504,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <f t="shared" si="3"/>
-        <v>41228</v>
+        <v>41080</v>
       </c>
       <c r="F81">
         <f t="shared" si="4"/>
@@ -4504,9 +4524,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <f t="shared" si="3"/>
-        <v>41229</v>
+        <v>41081</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
@@ -4524,9 +4544,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <f t="shared" si="3"/>
-        <v>41230</v>
+        <v>41082</v>
       </c>
       <c r="F83">
         <f t="shared" si="4"/>
@@ -4544,9 +4564,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <f t="shared" si="3"/>
-        <v>41231</v>
+        <v>41083</v>
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
@@ -4564,9 +4584,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <f t="shared" si="3"/>
-        <v>41232</v>
+        <v>41084</v>
       </c>
       <c r="F85">
         <f t="shared" si="4"/>
@@ -4584,9 +4604,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <f t="shared" si="3"/>
-        <v>41233</v>
+        <v>41085</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
@@ -4604,9 +4624,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <f t="shared" si="3"/>
-        <v>41234</v>
+        <v>41086</v>
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
@@ -4624,9 +4644,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <f t="shared" si="3"/>
-        <v>41235</v>
+        <v>41087</v>
       </c>
       <c r="F88">
         <f t="shared" si="4"/>
@@ -4644,9 +4664,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <f t="shared" si="3"/>
-        <v>41236</v>
+        <v>41088</v>
       </c>
       <c r="F89">
         <f t="shared" si="4"/>
@@ -4664,9 +4684,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <f t="shared" si="3"/>
-        <v>41237</v>
+        <v>41089</v>
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
@@ -4684,9 +4704,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <f t="shared" si="3"/>
-        <v>41238</v>
+        <v>41090</v>
       </c>
       <c r="F91">
         <f t="shared" si="4"/>
@@ -4704,9 +4724,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <f t="shared" si="3"/>
-        <v>41239</v>
+        <v>41091</v>
       </c>
       <c r="F92">
         <f t="shared" si="4"/>
@@ -4724,9 +4744,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <f t="shared" si="3"/>
-        <v>41240</v>
+        <v>41092</v>
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
@@ -4744,9 +4764,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <f t="shared" si="3"/>
-        <v>41241</v>
+        <v>41093</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
@@ -4764,9 +4784,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <f t="shared" si="3"/>
-        <v>41242</v>
+        <v>41094</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
@@ -4784,9 +4804,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <f t="shared" si="3"/>
-        <v>41243</v>
+        <v>41095</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
@@ -4804,9 +4824,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <f t="shared" si="3"/>
-        <v>41244</v>
+        <v>41096</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
@@ -4824,9 +4844,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <f t="shared" si="3"/>
-        <v>41245</v>
+        <v>41097</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
@@ -4844,9 +4864,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <f t="shared" si="3"/>
-        <v>41246</v>
+        <v>41098</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
@@ -4864,9 +4884,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <f t="shared" si="3"/>
-        <v>41247</v>
+        <v>41099</v>
       </c>
       <c r="F100">
         <f t="shared" si="4"/>
@@ -4884,9 +4904,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <f t="shared" si="3"/>
-        <v>41248</v>
+        <v>41100</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
@@ -4904,9 +4924,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <f t="shared" si="3"/>
-        <v>41249</v>
+        <v>41101</v>
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
@@ -4924,9 +4944,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <f t="shared" si="3"/>
-        <v>41250</v>
+        <v>41102</v>
       </c>
       <c r="F103">
         <f t="shared" si="4"/>
@@ -4944,9 +4964,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <f t="shared" si="3"/>
-        <v>41251</v>
+        <v>41103</v>
       </c>
       <c r="F104">
         <f t="shared" si="4"/>
@@ -4964,9 +4984,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <f t="shared" si="3"/>
-        <v>41252</v>
+        <v>41104</v>
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
@@ -4984,9 +5004,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <f t="shared" si="3"/>
-        <v>41253</v>
+        <v>41105</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
@@ -5004,9 +5024,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <f t="shared" si="3"/>
-        <v>41254</v>
+        <v>41106</v>
       </c>
       <c r="F107">
         <f t="shared" si="4"/>
@@ -5024,9 +5044,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <f t="shared" si="3"/>
-        <v>41255</v>
+        <v>41107</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
@@ -5044,9 +5064,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <f t="shared" si="3"/>
-        <v>41256</v>
+        <v>41108</v>
       </c>
       <c r="F109">
         <f t="shared" si="4"/>
@@ -5064,9 +5084,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <f t="shared" si="3"/>
-        <v>41257</v>
+        <v>41109</v>
       </c>
       <c r="F110">
         <f t="shared" si="4"/>
@@ -5084,9 +5104,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <f t="shared" si="3"/>
-        <v>41258</v>
+        <v>41110</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
@@ -5104,9 +5124,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <f t="shared" si="3"/>
-        <v>41259</v>
+        <v>41111</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
@@ -5124,9 +5144,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <f t="shared" si="3"/>
-        <v>41260</v>
+        <v>41112</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
@@ -5144,9 +5164,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <f t="shared" si="3"/>
-        <v>41261</v>
+        <v>41113</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
@@ -5164,9 +5184,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <f t="shared" si="3"/>
-        <v>41262</v>
+        <v>41114</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
@@ -5184,9 +5204,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <f t="shared" si="3"/>
-        <v>41263</v>
+        <v>41115</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
@@ -5204,9 +5224,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <f t="shared" si="3"/>
-        <v>41264</v>
+        <v>41116</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
@@ -5224,9 +5244,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <f t="shared" si="3"/>
-        <v>41265</v>
+        <v>41117</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
@@ -5244,9 +5264,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <f t="shared" si="3"/>
-        <v>41266</v>
+        <v>41118</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
@@ -5264,9 +5284,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <f t="shared" si="3"/>
-        <v>41267</v>
+        <v>41119</v>
       </c>
       <c r="F120">
         <f t="shared" si="4"/>
@@ -5284,9 +5304,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <f t="shared" si="3"/>
-        <v>41268</v>
+        <v>41120</v>
       </c>
       <c r="F121">
         <f t="shared" si="4"/>
@@ -5304,9 +5324,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <f t="shared" si="3"/>
-        <v>41269</v>
+        <v>41121</v>
       </c>
       <c r="F122">
         <f t="shared" si="4"/>
@@ -5324,9 +5344,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <f t="shared" si="3"/>
-        <v>41270</v>
+        <v>41122</v>
       </c>
       <c r="F123">
         <f t="shared" si="4"/>
@@ -5344,9 +5364,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <f t="shared" si="3"/>
-        <v>41271</v>
+        <v>41123</v>
       </c>
       <c r="F124">
         <f t="shared" si="4"/>
@@ -5364,9 +5384,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <f t="shared" si="3"/>
-        <v>41272</v>
+        <v>41124</v>
       </c>
       <c r="F125">
         <f t="shared" si="4"/>
@@ -5384,9 +5404,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <f t="shared" si="3"/>
-        <v>41273</v>
+        <v>41125</v>
       </c>
       <c r="F126">
         <f t="shared" si="4"/>
@@ -5404,9 +5424,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <f t="shared" si="3"/>
-        <v>41274</v>
+        <v>41126</v>
       </c>
       <c r="F127">
         <f t="shared" si="4"/>
@@ -5424,9 +5444,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <f t="shared" si="3"/>
-        <v>41275</v>
+        <v>41127</v>
       </c>
       <c r="F128">
         <f t="shared" si="4"/>
@@ -5444,9 +5464,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <f t="shared" si="3"/>
-        <v>41276</v>
+        <v>41128</v>
       </c>
       <c r="F129">
         <f t="shared" si="4"/>
@@ -5464,9 +5484,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <f t="shared" si="3"/>
-        <v>41277</v>
+        <v>41129</v>
       </c>
       <c r="F130">
         <f t="shared" si="4"/>
@@ -5484,9 +5504,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <f t="shared" ref="E131:E194" si="6">A131-$A$2+$H$2</f>
-        <v>41278</v>
+        <v>41130</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F194" si="7">B131</f>
@@ -5504,9 +5524,9 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="3">
         <f t="shared" si="6"/>
-        <v>41279</v>
+        <v>41131</v>
       </c>
       <c r="F132">
         <f t="shared" si="7"/>
@@ -5524,9 +5544,9 @@
         <f t="shared" ref="C133:C197" si="8">A133-A132</f>
         <v>1</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="3">
         <f t="shared" si="6"/>
-        <v>41280</v>
+        <v>41132</v>
       </c>
       <c r="F133">
         <f t="shared" si="7"/>
@@ -5544,9 +5564,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="3">
         <f t="shared" si="6"/>
-        <v>41281</v>
+        <v>41133</v>
       </c>
       <c r="F134">
         <f t="shared" si="7"/>
@@ -5564,9 +5584,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="3">
         <f t="shared" si="6"/>
-        <v>41282</v>
+        <v>41134</v>
       </c>
       <c r="F135">
         <f t="shared" si="7"/>
@@ -5584,9 +5604,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <f t="shared" si="6"/>
-        <v>41283</v>
+        <v>41135</v>
       </c>
       <c r="F136">
         <f t="shared" si="7"/>
@@ -5604,9 +5624,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="3">
         <f t="shared" si="6"/>
-        <v>41284</v>
+        <v>41136</v>
       </c>
       <c r="F137">
         <f t="shared" si="7"/>
@@ -5624,9 +5644,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <f t="shared" si="6"/>
-        <v>41285</v>
+        <v>41137</v>
       </c>
       <c r="F138">
         <f t="shared" si="7"/>
@@ -5644,9 +5664,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <f t="shared" si="6"/>
-        <v>41286</v>
+        <v>41138</v>
       </c>
       <c r="F139">
         <f t="shared" si="7"/>
@@ -5664,9 +5684,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <f t="shared" si="6"/>
-        <v>41287</v>
+        <v>41139</v>
       </c>
       <c r="F140">
         <f t="shared" si="7"/>
@@ -5684,9 +5704,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <f t="shared" si="6"/>
-        <v>41288</v>
+        <v>41140</v>
       </c>
       <c r="F141">
         <f t="shared" si="7"/>
@@ -5704,9 +5724,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="3">
         <f t="shared" si="6"/>
-        <v>41289</v>
+        <v>41141</v>
       </c>
       <c r="F142">
         <f t="shared" si="7"/>
@@ -5724,9 +5744,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <f t="shared" si="6"/>
-        <v>41290</v>
+        <v>41142</v>
       </c>
       <c r="F143">
         <f t="shared" si="7"/>
@@ -5744,9 +5764,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="3">
         <f t="shared" si="6"/>
-        <v>41291</v>
+        <v>41143</v>
       </c>
       <c r="F144">
         <f t="shared" si="7"/>
@@ -5764,9 +5784,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="3">
         <f t="shared" si="6"/>
-        <v>41292</v>
+        <v>41144</v>
       </c>
       <c r="F145">
         <f t="shared" si="7"/>
@@ -5784,9 +5804,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="3">
         <f t="shared" si="6"/>
-        <v>41293</v>
+        <v>41145</v>
       </c>
       <c r="F146">
         <f t="shared" si="7"/>
@@ -5804,9 +5824,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <f t="shared" si="6"/>
-        <v>41294</v>
+        <v>41146</v>
       </c>
       <c r="F147">
         <f t="shared" si="7"/>
@@ -5824,9 +5844,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <f t="shared" si="6"/>
-        <v>41295</v>
+        <v>41147</v>
       </c>
       <c r="F148">
         <f t="shared" si="7"/>
@@ -5844,9 +5864,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="3">
         <f t="shared" si="6"/>
-        <v>41296</v>
+        <v>41148</v>
       </c>
       <c r="F149">
         <f t="shared" si="7"/>
@@ -5864,9 +5884,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="3">
         <f t="shared" si="6"/>
-        <v>41297</v>
+        <v>41149</v>
       </c>
       <c r="F150">
         <f t="shared" si="7"/>
@@ -5884,9 +5904,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="3">
         <f t="shared" si="6"/>
-        <v>41298</v>
+        <v>41150</v>
       </c>
       <c r="F151">
         <f t="shared" si="7"/>
@@ -5904,9 +5924,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="3">
         <f t="shared" si="6"/>
-        <v>41299</v>
+        <v>41151</v>
       </c>
       <c r="F152">
         <f t="shared" si="7"/>
@@ -5924,9 +5944,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="3">
         <f t="shared" si="6"/>
-        <v>41300</v>
+        <v>41152</v>
       </c>
       <c r="F153">
         <f t="shared" si="7"/>
@@ -5944,9 +5964,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="3">
         <f t="shared" si="6"/>
-        <v>41301</v>
+        <v>41153</v>
       </c>
       <c r="F154">
         <f t="shared" si="7"/>
@@ -5964,9 +5984,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <f t="shared" si="6"/>
-        <v>41302</v>
+        <v>41154</v>
       </c>
       <c r="F155">
         <f t="shared" si="7"/>
@@ -5984,9 +6004,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <f t="shared" si="6"/>
-        <v>41303</v>
+        <v>41155</v>
       </c>
       <c r="F156">
         <f t="shared" si="7"/>
@@ -6004,9 +6024,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <f t="shared" si="6"/>
-        <v>41304</v>
+        <v>41156</v>
       </c>
       <c r="F157">
         <f t="shared" si="7"/>
@@ -6024,9 +6044,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="3">
         <f t="shared" si="6"/>
-        <v>41305</v>
+        <v>41157</v>
       </c>
       <c r="F158">
         <f t="shared" si="7"/>
@@ -6044,9 +6064,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="3">
         <f t="shared" si="6"/>
-        <v>41306</v>
+        <v>41158</v>
       </c>
       <c r="F159">
         <f t="shared" si="7"/>
@@ -6064,9 +6084,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="3">
         <f t="shared" si="6"/>
-        <v>41307</v>
+        <v>41159</v>
       </c>
       <c r="F160">
         <f t="shared" si="7"/>
@@ -6084,9 +6104,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="3">
         <f t="shared" si="6"/>
-        <v>41308</v>
+        <v>41160</v>
       </c>
       <c r="F161">
         <f t="shared" si="7"/>
@@ -6104,9 +6124,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="3">
         <f t="shared" si="6"/>
-        <v>41309</v>
+        <v>41161</v>
       </c>
       <c r="F162">
         <f t="shared" si="7"/>
@@ -6124,9 +6144,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="3">
         <f t="shared" si="6"/>
-        <v>41310</v>
+        <v>41162</v>
       </c>
       <c r="F163">
         <f t="shared" si="7"/>
@@ -6144,9 +6164,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="3">
         <f t="shared" si="6"/>
-        <v>41311</v>
+        <v>41163</v>
       </c>
       <c r="F164">
         <f t="shared" si="7"/>
@@ -6164,9 +6184,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="3">
         <f t="shared" si="6"/>
-        <v>41312</v>
+        <v>41164</v>
       </c>
       <c r="F165">
         <f t="shared" si="7"/>
@@ -6184,9 +6204,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="3">
         <f t="shared" si="6"/>
-        <v>41313</v>
+        <v>41165</v>
       </c>
       <c r="F166">
         <f t="shared" si="7"/>
@@ -6204,9 +6224,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="3">
         <f t="shared" si="6"/>
-        <v>41314</v>
+        <v>41166</v>
       </c>
       <c r="F167">
         <f t="shared" si="7"/>
@@ -6224,9 +6244,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <f t="shared" si="6"/>
-        <v>41315</v>
+        <v>41167</v>
       </c>
       <c r="F168">
         <f t="shared" si="7"/>
@@ -6244,9 +6264,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <f t="shared" si="6"/>
-        <v>41316</v>
+        <v>41168</v>
       </c>
       <c r="F169">
         <f t="shared" si="7"/>
@@ -6264,9 +6284,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="3">
         <f t="shared" si="6"/>
-        <v>41317</v>
+        <v>41169</v>
       </c>
       <c r="F170">
         <f t="shared" si="7"/>
@@ -6284,9 +6304,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="3">
         <f t="shared" si="6"/>
-        <v>41318</v>
+        <v>41170</v>
       </c>
       <c r="F171">
         <f t="shared" si="7"/>
@@ -6304,9 +6324,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="3">
         <f t="shared" si="6"/>
-        <v>41319</v>
+        <v>41171</v>
       </c>
       <c r="F172">
         <f t="shared" si="7"/>
@@ -6324,9 +6344,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="3">
         <f t="shared" si="6"/>
-        <v>41320</v>
+        <v>41172</v>
       </c>
       <c r="F173">
         <f t="shared" si="7"/>
@@ -6344,9 +6364,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <f t="shared" si="6"/>
-        <v>41321</v>
+        <v>41173</v>
       </c>
       <c r="F174">
         <f t="shared" si="7"/>
@@ -6364,9 +6384,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="3">
         <f t="shared" si="6"/>
-        <v>41322</v>
+        <v>41174</v>
       </c>
       <c r="F175">
         <f t="shared" si="7"/>
@@ -6384,9 +6404,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="3">
         <f t="shared" si="6"/>
-        <v>41323</v>
+        <v>41175</v>
       </c>
       <c r="F176">
         <f t="shared" si="7"/>
@@ -6404,9 +6424,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="3">
         <f t="shared" si="6"/>
-        <v>41324</v>
+        <v>41176</v>
       </c>
       <c r="F177">
         <f t="shared" si="7"/>
@@ -6424,9 +6444,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="3">
         <f t="shared" si="6"/>
-        <v>41325</v>
+        <v>41177</v>
       </c>
       <c r="F178">
         <f t="shared" si="7"/>
@@ -6444,9 +6464,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="3">
         <f t="shared" si="6"/>
-        <v>41326</v>
+        <v>41178</v>
       </c>
       <c r="F179">
         <f t="shared" si="7"/>
@@ -6464,9 +6484,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="3">
         <f t="shared" si="6"/>
-        <v>41327</v>
+        <v>41179</v>
       </c>
       <c r="F180">
         <f t="shared" si="7"/>
@@ -6484,9 +6504,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="3">
         <f t="shared" si="6"/>
-        <v>41328</v>
+        <v>41180</v>
       </c>
       <c r="F181">
         <f t="shared" si="7"/>
@@ -6504,9 +6524,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="3">
         <f t="shared" si="6"/>
-        <v>41329</v>
+        <v>41181</v>
       </c>
       <c r="F182">
         <f t="shared" si="7"/>
@@ -6524,9 +6544,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="3">
         <f t="shared" si="6"/>
-        <v>41330</v>
+        <v>41182</v>
       </c>
       <c r="F183">
         <f t="shared" si="7"/>
@@ -6544,9 +6564,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="3">
         <f t="shared" si="6"/>
-        <v>41331</v>
+        <v>41183</v>
       </c>
       <c r="F184">
         <f t="shared" si="7"/>
@@ -6564,9 +6584,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="3">
         <f t="shared" si="6"/>
-        <v>41332</v>
+        <v>41184</v>
       </c>
       <c r="F185">
         <f t="shared" si="7"/>
@@ -6584,9 +6604,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="3">
         <f t="shared" si="6"/>
-        <v>41333</v>
+        <v>41185</v>
       </c>
       <c r="F186">
         <f t="shared" si="7"/>
@@ -6604,9 +6624,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="3">
         <f t="shared" si="6"/>
-        <v>41334</v>
+        <v>41186</v>
       </c>
       <c r="F187">
         <f t="shared" si="7"/>
@@ -6624,9 +6644,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="3">
         <f t="shared" si="6"/>
-        <v>41335</v>
+        <v>41187</v>
       </c>
       <c r="F188">
         <f t="shared" si="7"/>
@@ -6644,9 +6664,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="3">
         <f t="shared" si="6"/>
-        <v>41336</v>
+        <v>41188</v>
       </c>
       <c r="F189">
         <f t="shared" si="7"/>
@@ -6664,9 +6684,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="3">
         <f t="shared" si="6"/>
-        <v>41337</v>
+        <v>41189</v>
       </c>
       <c r="F190">
         <f t="shared" si="7"/>
@@ -6684,9 +6704,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="3">
         <f t="shared" si="6"/>
-        <v>41338</v>
+        <v>41190</v>
       </c>
       <c r="F191">
         <f t="shared" si="7"/>
@@ -6704,9 +6724,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="3">
         <f t="shared" si="6"/>
-        <v>41339</v>
+        <v>41191</v>
       </c>
       <c r="F192">
         <f t="shared" si="7"/>
@@ -6724,9 +6744,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="3">
         <f t="shared" si="6"/>
-        <v>41340</v>
+        <v>41192</v>
       </c>
       <c r="F193">
         <f t="shared" si="7"/>
@@ -6744,9 +6764,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="3">
         <f t="shared" si="6"/>
-        <v>41341</v>
+        <v>41193</v>
       </c>
       <c r="F194">
         <f t="shared" si="7"/>
@@ -6764,9 +6784,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="3">
         <f t="shared" ref="E195:E258" si="9">A195-$A$2+$H$2</f>
-        <v>41342</v>
+        <v>41194</v>
       </c>
       <c r="F195">
         <f t="shared" ref="F195:F258" si="10">B195</f>
@@ -6784,9 +6804,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="3">
         <f t="shared" si="9"/>
-        <v>41343</v>
+        <v>41195</v>
       </c>
       <c r="F196">
         <f t="shared" si="10"/>
@@ -6804,9 +6824,9 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="3">
         <f t="shared" si="9"/>
-        <v>41344</v>
+        <v>41196</v>
       </c>
       <c r="F197">
         <f t="shared" si="10"/>
@@ -6824,9 +6844,9 @@
         <f t="shared" ref="C198:C263" si="11">A198-A197</f>
         <v>1</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="3">
         <f t="shared" si="9"/>
-        <v>41345</v>
+        <v>41197</v>
       </c>
       <c r="F198">
         <f t="shared" si="10"/>
@@ -6844,9 +6864,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="3">
         <f t="shared" si="9"/>
-        <v>41346</v>
+        <v>41198</v>
       </c>
       <c r="F199">
         <f t="shared" si="10"/>
@@ -6864,9 +6884,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="3">
         <f t="shared" si="9"/>
-        <v>41347</v>
+        <v>41199</v>
       </c>
       <c r="F200">
         <f t="shared" si="10"/>
@@ -6884,9 +6904,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="3">
         <f t="shared" si="9"/>
-        <v>41348</v>
+        <v>41200</v>
       </c>
       <c r="F201">
         <f t="shared" si="10"/>
@@ -6904,9 +6924,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="3">
         <f t="shared" si="9"/>
-        <v>41349</v>
+        <v>41201</v>
       </c>
       <c r="F202">
         <f t="shared" si="10"/>
@@ -6924,9 +6944,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="3">
         <f t="shared" si="9"/>
-        <v>41350</v>
+        <v>41202</v>
       </c>
       <c r="F203">
         <f t="shared" si="10"/>
@@ -6944,9 +6964,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="3">
         <f t="shared" si="9"/>
-        <v>41351</v>
+        <v>41203</v>
       </c>
       <c r="F204">
         <f t="shared" si="10"/>
@@ -6964,9 +6984,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="3">
         <f t="shared" si="9"/>
-        <v>41352</v>
+        <v>41204</v>
       </c>
       <c r="F205">
         <f t="shared" si="10"/>
@@ -6984,9 +7004,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="3">
         <f t="shared" si="9"/>
-        <v>41353</v>
+        <v>41205</v>
       </c>
       <c r="F206">
         <f t="shared" si="10"/>
@@ -7004,9 +7024,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="3">
         <f t="shared" si="9"/>
-        <v>41354</v>
+        <v>41206</v>
       </c>
       <c r="F207">
         <f t="shared" si="10"/>
@@ -7024,9 +7044,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="3">
         <f t="shared" si="9"/>
-        <v>41355</v>
+        <v>41207</v>
       </c>
       <c r="F208">
         <f t="shared" si="10"/>
@@ -7044,9 +7064,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E209" s="3">
         <f t="shared" si="9"/>
-        <v>41356</v>
+        <v>41208</v>
       </c>
       <c r="F209">
         <f t="shared" si="10"/>
@@ -7064,9 +7084,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210" s="3">
         <f t="shared" si="9"/>
-        <v>41357</v>
+        <v>41209</v>
       </c>
       <c r="F210">
         <f t="shared" si="10"/>
@@ -7084,9 +7104,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="3">
         <f t="shared" si="9"/>
-        <v>41358</v>
+        <v>41210</v>
       </c>
       <c r="F211">
         <f t="shared" si="10"/>
@@ -7104,9 +7124,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212" s="3">
         <f t="shared" si="9"/>
-        <v>41359</v>
+        <v>41211</v>
       </c>
       <c r="F212">
         <f t="shared" si="10"/>
@@ -7124,9 +7144,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="3">
         <f t="shared" si="9"/>
-        <v>41360</v>
+        <v>41212</v>
       </c>
       <c r="F213">
         <f t="shared" si="10"/>
@@ -7144,9 +7164,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214" s="3">
         <f t="shared" si="9"/>
-        <v>41361</v>
+        <v>41213</v>
       </c>
       <c r="F214">
         <f t="shared" si="10"/>
@@ -7164,9 +7184,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215" s="3">
         <f t="shared" si="9"/>
-        <v>41362</v>
+        <v>41214</v>
       </c>
       <c r="F215">
         <f t="shared" si="10"/>
@@ -7184,9 +7204,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216" s="3">
         <f t="shared" si="9"/>
-        <v>41363</v>
+        <v>41215</v>
       </c>
       <c r="F216">
         <f t="shared" si="10"/>
@@ -7204,9 +7224,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E217" s="3">
         <f t="shared" si="9"/>
-        <v>41364</v>
+        <v>41216</v>
       </c>
       <c r="F217">
         <f t="shared" si="10"/>
@@ -7224,9 +7244,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218" s="3">
         <f t="shared" si="9"/>
-        <v>41365</v>
+        <v>41217</v>
       </c>
       <c r="F218">
         <f t="shared" si="10"/>
@@ -7244,9 +7264,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E219" s="4">
+      <c r="E219" s="3">
         <f t="shared" si="9"/>
-        <v>41366</v>
+        <v>41218</v>
       </c>
       <c r="F219">
         <f t="shared" si="10"/>
@@ -7264,9 +7284,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220" s="3">
         <f t="shared" si="9"/>
-        <v>41367</v>
+        <v>41219</v>
       </c>
       <c r="F220">
         <f t="shared" si="10"/>
@@ -7284,9 +7304,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221" s="3">
         <f t="shared" si="9"/>
-        <v>41368</v>
+        <v>41220</v>
       </c>
       <c r="F221">
         <f t="shared" si="10"/>
@@ -7304,9 +7324,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="3">
         <f t="shared" si="9"/>
-        <v>41369</v>
+        <v>41221</v>
       </c>
       <c r="F222">
         <f t="shared" si="10"/>
@@ -7324,9 +7344,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E223" s="4">
+      <c r="E223" s="3">
         <f t="shared" si="9"/>
-        <v>41370</v>
+        <v>41222</v>
       </c>
       <c r="F223">
         <f t="shared" si="10"/>
@@ -7344,9 +7364,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224" s="3">
         <f t="shared" si="9"/>
-        <v>41371</v>
+        <v>41223</v>
       </c>
       <c r="F224">
         <f t="shared" si="10"/>
@@ -7364,9 +7384,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E225" s="3">
         <f t="shared" si="9"/>
-        <v>41372</v>
+        <v>41224</v>
       </c>
       <c r="F225">
         <f t="shared" si="10"/>
@@ -7384,9 +7404,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226" s="3">
         <f t="shared" si="9"/>
-        <v>41373</v>
+        <v>41225</v>
       </c>
       <c r="F226">
         <f t="shared" si="10"/>
@@ -7404,9 +7424,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E227" s="4">
+      <c r="E227" s="3">
         <f t="shared" si="9"/>
-        <v>41374</v>
+        <v>41226</v>
       </c>
       <c r="F227">
         <f t="shared" si="10"/>
@@ -7424,9 +7444,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E228" s="4">
+      <c r="E228" s="3">
         <f t="shared" si="9"/>
-        <v>41375</v>
+        <v>41227</v>
       </c>
       <c r="F228">
         <f t="shared" si="10"/>
@@ -7444,9 +7464,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E229" s="4">
+      <c r="E229" s="3">
         <f t="shared" si="9"/>
-        <v>41376</v>
+        <v>41228</v>
       </c>
       <c r="F229">
         <f t="shared" si="10"/>
@@ -7464,9 +7484,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E230" s="4">
+      <c r="E230" s="3">
         <f t="shared" si="9"/>
-        <v>41377</v>
+        <v>41229</v>
       </c>
       <c r="F230">
         <f t="shared" si="10"/>
@@ -7484,9 +7504,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231" s="3">
         <f t="shared" si="9"/>
-        <v>41378</v>
+        <v>41230</v>
       </c>
       <c r="F231">
         <f t="shared" si="10"/>
@@ -7504,9 +7524,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232" s="3">
         <f t="shared" si="9"/>
-        <v>41379</v>
+        <v>41231</v>
       </c>
       <c r="F232">
         <f t="shared" si="10"/>
@@ -7524,9 +7544,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233" s="3">
         <f t="shared" si="9"/>
-        <v>41380</v>
+        <v>41232</v>
       </c>
       <c r="F233">
         <f t="shared" si="10"/>
@@ -7544,9 +7564,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E234" s="4">
+      <c r="E234" s="3">
         <f t="shared" si="9"/>
-        <v>41381</v>
+        <v>41233</v>
       </c>
       <c r="F234">
         <f t="shared" si="10"/>
@@ -7564,9 +7584,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E235" s="3">
         <f t="shared" si="9"/>
-        <v>41382</v>
+        <v>41234</v>
       </c>
       <c r="F235">
         <f t="shared" si="10"/>
@@ -7584,9 +7604,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="3">
         <f t="shared" si="9"/>
-        <v>41383</v>
+        <v>41235</v>
       </c>
       <c r="F236">
         <f t="shared" si="10"/>
@@ -7604,9 +7624,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237" s="3">
         <f t="shared" si="9"/>
-        <v>41384</v>
+        <v>41236</v>
       </c>
       <c r="F237">
         <f t="shared" si="10"/>
@@ -7624,9 +7644,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E238" s="3">
         <f t="shared" si="9"/>
-        <v>41385</v>
+        <v>41237</v>
       </c>
       <c r="F238">
         <f t="shared" si="10"/>
@@ -7644,9 +7664,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239" s="3">
         <f t="shared" si="9"/>
-        <v>41386</v>
+        <v>41238</v>
       </c>
       <c r="F239">
         <f t="shared" si="10"/>
@@ -7664,9 +7684,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240" s="3">
         <f t="shared" si="9"/>
-        <v>41387</v>
+        <v>41239</v>
       </c>
       <c r="F240">
         <f t="shared" si="10"/>
@@ -7684,9 +7704,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241" s="3">
         <f t="shared" si="9"/>
-        <v>41388</v>
+        <v>41240</v>
       </c>
       <c r="F241">
         <f t="shared" si="10"/>
@@ -7704,9 +7724,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E242" s="4">
+      <c r="E242" s="3">
         <f t="shared" si="9"/>
-        <v>41389</v>
+        <v>41241</v>
       </c>
       <c r="F242">
         <f t="shared" si="10"/>
@@ -7724,9 +7744,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243" s="3">
         <f t="shared" si="9"/>
-        <v>41390</v>
+        <v>41242</v>
       </c>
       <c r="F243">
         <f t="shared" si="10"/>
@@ -7744,9 +7764,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244" s="3">
         <f t="shared" si="9"/>
-        <v>41391</v>
+        <v>41243</v>
       </c>
       <c r="F244">
         <f t="shared" si="10"/>
@@ -7764,9 +7784,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E245" s="4">
+      <c r="E245" s="3">
         <f t="shared" si="9"/>
-        <v>41392</v>
+        <v>41244</v>
       </c>
       <c r="F245">
         <f t="shared" si="10"/>
@@ -7784,9 +7804,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E246" s="3">
         <f t="shared" si="9"/>
-        <v>41393</v>
+        <v>41245</v>
       </c>
       <c r="F246">
         <f t="shared" si="10"/>
@@ -7804,9 +7824,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="3">
         <f t="shared" si="9"/>
-        <v>41394</v>
+        <v>41246</v>
       </c>
       <c r="F247">
         <f t="shared" si="10"/>
@@ -7824,9 +7844,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="3">
         <f t="shared" si="9"/>
-        <v>41395</v>
+        <v>41247</v>
       </c>
       <c r="F248">
         <f t="shared" si="10"/>
@@ -7844,9 +7864,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249" s="3">
         <f t="shared" si="9"/>
-        <v>41396</v>
+        <v>41248</v>
       </c>
       <c r="F249">
         <f t="shared" si="10"/>
@@ -7864,9 +7884,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250" s="3">
         <f t="shared" si="9"/>
-        <v>41397</v>
+        <v>41249</v>
       </c>
       <c r="F250">
         <f t="shared" si="10"/>
@@ -7884,9 +7904,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="3">
         <f t="shared" si="9"/>
-        <v>41398</v>
+        <v>41250</v>
       </c>
       <c r="F251">
         <f t="shared" si="10"/>
@@ -7904,9 +7924,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E252" s="4">
+      <c r="E252" s="3">
         <f t="shared" si="9"/>
-        <v>41399</v>
+        <v>41251</v>
       </c>
       <c r="F252">
         <f t="shared" si="10"/>
@@ -7924,9 +7944,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E253" s="4">
+      <c r="E253" s="3">
         <f t="shared" si="9"/>
-        <v>41400</v>
+        <v>41252</v>
       </c>
       <c r="F253">
         <f t="shared" si="10"/>
@@ -7944,9 +7964,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254" s="3">
         <f t="shared" si="9"/>
-        <v>41401</v>
+        <v>41253</v>
       </c>
       <c r="F254">
         <f t="shared" si="10"/>
@@ -7964,9 +7984,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E255" s="4">
+      <c r="E255" s="3">
         <f t="shared" si="9"/>
-        <v>41402</v>
+        <v>41254</v>
       </c>
       <c r="F255">
         <f t="shared" si="10"/>
@@ -7984,9 +8004,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256" s="3">
         <f t="shared" si="9"/>
-        <v>41403</v>
+        <v>41255</v>
       </c>
       <c r="F256">
         <f t="shared" si="10"/>
@@ -8004,9 +8024,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="3">
         <f t="shared" si="9"/>
-        <v>41404</v>
+        <v>41256</v>
       </c>
       <c r="F257">
         <f t="shared" si="10"/>
@@ -8024,9 +8044,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258" s="3">
         <f t="shared" si="9"/>
-        <v>41405</v>
+        <v>41257</v>
       </c>
       <c r="F258">
         <f t="shared" si="10"/>
@@ -8044,9 +8064,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259" s="3">
         <f t="shared" ref="E259:E322" si="12">A259-$A$2+$H$2</f>
-        <v>41406</v>
+        <v>41258</v>
       </c>
       <c r="F259">
         <f t="shared" ref="F259:F322" si="13">B259</f>
@@ -8064,9 +8084,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260" s="3">
         <f t="shared" si="12"/>
-        <v>41407</v>
+        <v>41259</v>
       </c>
       <c r="F260">
         <f t="shared" si="13"/>
@@ -8084,9 +8104,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261" s="3">
         <f t="shared" si="12"/>
-        <v>41408</v>
+        <v>41260</v>
       </c>
       <c r="F261">
         <f t="shared" si="13"/>
@@ -8104,9 +8124,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262" s="3">
         <f t="shared" si="12"/>
-        <v>41409</v>
+        <v>41261</v>
       </c>
       <c r="F262">
         <f t="shared" si="13"/>
@@ -8124,9 +8144,9 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263" s="3">
         <f t="shared" si="12"/>
-        <v>41410</v>
+        <v>41262</v>
       </c>
       <c r="F263">
         <f t="shared" si="13"/>
@@ -8144,9 +8164,9 @@
         <f t="shared" ref="C264:C328" si="14">A264-A263</f>
         <v>1</v>
       </c>
-      <c r="E264" s="4">
+      <c r="E264" s="3">
         <f t="shared" si="12"/>
-        <v>41411</v>
+        <v>41263</v>
       </c>
       <c r="F264">
         <f t="shared" si="13"/>
@@ -8164,9 +8184,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E265" s="4">
+      <c r="E265" s="3">
         <f t="shared" si="12"/>
-        <v>41412</v>
+        <v>41264</v>
       </c>
       <c r="F265">
         <f t="shared" si="13"/>
@@ -8184,9 +8204,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E266" s="4">
+      <c r="E266" s="3">
         <f t="shared" si="12"/>
-        <v>41413</v>
+        <v>41265</v>
       </c>
       <c r="F266">
         <f t="shared" si="13"/>
@@ -8204,9 +8224,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267" s="3">
         <f t="shared" si="12"/>
-        <v>41414</v>
+        <v>41266</v>
       </c>
       <c r="F267">
         <f t="shared" si="13"/>
@@ -8224,9 +8244,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268" s="3">
         <f t="shared" si="12"/>
-        <v>41415</v>
+        <v>41267</v>
       </c>
       <c r="F268">
         <f t="shared" si="13"/>
@@ -8244,9 +8264,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269" s="3">
         <f t="shared" si="12"/>
-        <v>41416</v>
+        <v>41268</v>
       </c>
       <c r="F269">
         <f t="shared" si="13"/>
@@ -8264,9 +8284,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270" s="3">
         <f t="shared" si="12"/>
-        <v>41417</v>
+        <v>41269</v>
       </c>
       <c r="F270">
         <f t="shared" si="13"/>
@@ -8284,9 +8304,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271" s="3">
         <f t="shared" si="12"/>
-        <v>41418</v>
+        <v>41270</v>
       </c>
       <c r="F271">
         <f t="shared" si="13"/>
@@ -8304,9 +8324,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E272" s="4">
+      <c r="E272" s="3">
         <f t="shared" si="12"/>
-        <v>41419</v>
+        <v>41271</v>
       </c>
       <c r="F272">
         <f t="shared" si="13"/>
@@ -8324,9 +8344,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273" s="3">
         <f t="shared" si="12"/>
-        <v>41420</v>
+        <v>41272</v>
       </c>
       <c r="F273">
         <f t="shared" si="13"/>
@@ -8344,9 +8364,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274" s="3">
         <f t="shared" si="12"/>
-        <v>41421</v>
+        <v>41273</v>
       </c>
       <c r="F274">
         <f t="shared" si="13"/>
@@ -8364,9 +8384,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="3">
         <f t="shared" si="12"/>
-        <v>41422</v>
+        <v>41274</v>
       </c>
       <c r="F275">
         <f t="shared" si="13"/>
@@ -8384,9 +8404,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276" s="3">
         <f t="shared" si="12"/>
-        <v>41423</v>
+        <v>41275</v>
       </c>
       <c r="F276">
         <f t="shared" si="13"/>
@@ -8404,9 +8424,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277" s="3">
         <f t="shared" si="12"/>
-        <v>41424</v>
+        <v>41276</v>
       </c>
       <c r="F277">
         <f t="shared" si="13"/>
@@ -8424,9 +8444,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278" s="3">
         <f t="shared" si="12"/>
-        <v>41425</v>
+        <v>41277</v>
       </c>
       <c r="F278">
         <f t="shared" si="13"/>
@@ -8444,9 +8464,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279" s="3">
         <f t="shared" si="12"/>
-        <v>41426</v>
+        <v>41278</v>
       </c>
       <c r="F279">
         <f t="shared" si="13"/>
@@ -8464,9 +8484,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280" s="3">
         <f t="shared" si="12"/>
-        <v>41427</v>
+        <v>41279</v>
       </c>
       <c r="F280">
         <f t="shared" si="13"/>
@@ -8484,9 +8504,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E281" s="4">
+      <c r="E281" s="3">
         <f t="shared" si="12"/>
-        <v>41428</v>
+        <v>41280</v>
       </c>
       <c r="F281">
         <f t="shared" si="13"/>
@@ -8504,9 +8524,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E282" s="4">
+      <c r="E282" s="3">
         <f t="shared" si="12"/>
-        <v>41429</v>
+        <v>41281</v>
       </c>
       <c r="F282">
         <f t="shared" si="13"/>
@@ -8524,9 +8544,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E283" s="4">
+      <c r="E283" s="3">
         <f t="shared" si="12"/>
-        <v>41430</v>
+        <v>41282</v>
       </c>
       <c r="F283">
         <f t="shared" si="13"/>
@@ -8544,9 +8564,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284" s="3">
         <f t="shared" si="12"/>
-        <v>41431</v>
+        <v>41283</v>
       </c>
       <c r="F284">
         <f t="shared" si="13"/>
@@ -8564,9 +8584,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="3">
         <f t="shared" si="12"/>
-        <v>41432</v>
+        <v>41284</v>
       </c>
       <c r="F285">
         <f t="shared" si="13"/>
@@ -8584,9 +8604,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E286" s="4">
+      <c r="E286" s="3">
         <f t="shared" si="12"/>
-        <v>41433</v>
+        <v>41285</v>
       </c>
       <c r="F286">
         <f t="shared" si="13"/>
@@ -8604,9 +8624,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E287" s="4">
+      <c r="E287" s="3">
         <f t="shared" si="12"/>
-        <v>41434</v>
+        <v>41286</v>
       </c>
       <c r="F287">
         <f t="shared" si="13"/>
@@ -8624,9 +8644,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288" s="3">
         <f t="shared" si="12"/>
-        <v>41435</v>
+        <v>41287</v>
       </c>
       <c r="F288">
         <f t="shared" si="13"/>
@@ -8644,9 +8664,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="3">
         <f t="shared" si="12"/>
-        <v>41436</v>
+        <v>41288</v>
       </c>
       <c r="F289">
         <f t="shared" si="13"/>
@@ -8664,9 +8684,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290" s="3">
         <f t="shared" si="12"/>
-        <v>41437</v>
+        <v>41289</v>
       </c>
       <c r="F290">
         <f t="shared" si="13"/>
@@ -8684,9 +8704,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291" s="3">
         <f t="shared" si="12"/>
-        <v>41438</v>
+        <v>41290</v>
       </c>
       <c r="F291">
         <f t="shared" si="13"/>
@@ -8704,9 +8724,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E292" s="4">
+      <c r="E292" s="3">
         <f t="shared" si="12"/>
-        <v>41439</v>
+        <v>41291</v>
       </c>
       <c r="F292">
         <f t="shared" si="13"/>
@@ -8724,9 +8744,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293" s="3">
         <f t="shared" si="12"/>
-        <v>41440</v>
+        <v>41292</v>
       </c>
       <c r="F293">
         <f t="shared" si="13"/>
@@ -8744,9 +8764,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E294" s="4">
+      <c r="E294" s="3">
         <f t="shared" si="12"/>
-        <v>41441</v>
+        <v>41293</v>
       </c>
       <c r="F294">
         <f t="shared" si="13"/>
@@ -8764,9 +8784,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="3">
         <f t="shared" si="12"/>
-        <v>41442</v>
+        <v>41294</v>
       </c>
       <c r="F295">
         <f t="shared" si="13"/>
@@ -8784,9 +8804,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296" s="3">
         <f t="shared" si="12"/>
-        <v>41443</v>
+        <v>41295</v>
       </c>
       <c r="F296">
         <f t="shared" si="13"/>
@@ -8804,9 +8824,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E297" s="4">
+      <c r="E297" s="3">
         <f t="shared" si="12"/>
-        <v>41444</v>
+        <v>41296</v>
       </c>
       <c r="F297">
         <f t="shared" si="13"/>
@@ -8824,9 +8844,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="3">
         <f t="shared" si="12"/>
-        <v>41445</v>
+        <v>41297</v>
       </c>
       <c r="F298">
         <f t="shared" si="13"/>
@@ -8844,9 +8864,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E299" s="4">
+      <c r="E299" s="3">
         <f t="shared" si="12"/>
-        <v>41446</v>
+        <v>41298</v>
       </c>
       <c r="F299">
         <f t="shared" si="13"/>
@@ -8864,9 +8884,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E300" s="4">
+      <c r="E300" s="3">
         <f t="shared" si="12"/>
-        <v>41447</v>
+        <v>41299</v>
       </c>
       <c r="F300">
         <f t="shared" si="13"/>
@@ -8884,9 +8904,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E301" s="4">
+      <c r="E301" s="3">
         <f t="shared" si="12"/>
-        <v>41448</v>
+        <v>41300</v>
       </c>
       <c r="F301">
         <f t="shared" si="13"/>
@@ -8904,9 +8924,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302" s="3">
         <f t="shared" si="12"/>
-        <v>41449</v>
+        <v>41301</v>
       </c>
       <c r="F302">
         <f t="shared" si="13"/>
@@ -8924,9 +8944,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E303" s="4">
+      <c r="E303" s="3">
         <f t="shared" si="12"/>
-        <v>41450</v>
+        <v>41302</v>
       </c>
       <c r="F303">
         <f t="shared" si="13"/>
@@ -8944,9 +8964,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304" s="3">
         <f t="shared" si="12"/>
-        <v>41451</v>
+        <v>41303</v>
       </c>
       <c r="F304">
         <f t="shared" si="13"/>
@@ -8964,9 +8984,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E305" s="4">
+      <c r="E305" s="3">
         <f t="shared" si="12"/>
-        <v>41452</v>
+        <v>41304</v>
       </c>
       <c r="F305">
         <f t="shared" si="13"/>
@@ -8984,9 +9004,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E306" s="4">
+      <c r="E306" s="3">
         <f t="shared" si="12"/>
-        <v>41453</v>
+        <v>41305</v>
       </c>
       <c r="F306">
         <f t="shared" si="13"/>
@@ -9004,9 +9024,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E307" s="4">
+      <c r="E307" s="3">
         <f t="shared" si="12"/>
-        <v>41454</v>
+        <v>41306</v>
       </c>
       <c r="F307">
         <f t="shared" si="13"/>
@@ -9024,9 +9044,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E308" s="4">
+      <c r="E308" s="3">
         <f t="shared" si="12"/>
-        <v>41455</v>
+        <v>41307</v>
       </c>
       <c r="F308">
         <f t="shared" si="13"/>
@@ -9044,9 +9064,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E309" s="4">
+      <c r="E309" s="3">
         <f t="shared" si="12"/>
-        <v>41456</v>
+        <v>41308</v>
       </c>
       <c r="F309">
         <f t="shared" si="13"/>
@@ -9064,9 +9084,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E310" s="4">
+      <c r="E310" s="3">
         <f t="shared" si="12"/>
-        <v>41457</v>
+        <v>41309</v>
       </c>
       <c r="F310">
         <f t="shared" si="13"/>
@@ -9084,9 +9104,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E311" s="4">
+      <c r="E311" s="3">
         <f t="shared" si="12"/>
-        <v>41458</v>
+        <v>41310</v>
       </c>
       <c r="F311">
         <f t="shared" si="13"/>
@@ -9104,9 +9124,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E312" s="4">
+      <c r="E312" s="3">
         <f t="shared" si="12"/>
-        <v>41459</v>
+        <v>41311</v>
       </c>
       <c r="F312">
         <f t="shared" si="13"/>
@@ -9124,9 +9144,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313" s="3">
         <f t="shared" si="12"/>
-        <v>41460</v>
+        <v>41312</v>
       </c>
       <c r="F313">
         <f t="shared" si="13"/>
@@ -9144,9 +9164,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314" s="3">
         <f t="shared" si="12"/>
-        <v>41461</v>
+        <v>41313</v>
       </c>
       <c r="F314">
         <f t="shared" si="13"/>
@@ -9164,9 +9184,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E315" s="4">
+      <c r="E315" s="3">
         <f t="shared" si="12"/>
-        <v>41462</v>
+        <v>41314</v>
       </c>
       <c r="F315">
         <f t="shared" si="13"/>
@@ -9184,9 +9204,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E316" s="4">
+      <c r="E316" s="3">
         <f t="shared" si="12"/>
-        <v>41463</v>
+        <v>41315</v>
       </c>
       <c r="F316">
         <f t="shared" si="13"/>
@@ -9204,9 +9224,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E317" s="4">
+      <c r="E317" s="3">
         <f t="shared" si="12"/>
-        <v>41464</v>
+        <v>41316</v>
       </c>
       <c r="F317">
         <f t="shared" si="13"/>
@@ -9224,9 +9244,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E318" s="4">
+      <c r="E318" s="3">
         <f t="shared" si="12"/>
-        <v>41465</v>
+        <v>41317</v>
       </c>
       <c r="F318">
         <f t="shared" si="13"/>
@@ -9244,9 +9264,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319" s="3">
         <f t="shared" si="12"/>
-        <v>41466</v>
+        <v>41318</v>
       </c>
       <c r="F319">
         <f t="shared" si="13"/>
@@ -9264,9 +9284,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E320" s="4">
+      <c r="E320" s="3">
         <f t="shared" si="12"/>
-        <v>41467</v>
+        <v>41319</v>
       </c>
       <c r="F320">
         <f t="shared" si="13"/>
@@ -9284,9 +9304,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321" s="3">
         <f t="shared" si="12"/>
-        <v>41468</v>
+        <v>41320</v>
       </c>
       <c r="F321">
         <f t="shared" si="13"/>
@@ -9304,9 +9324,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E322" s="4">
+      <c r="E322" s="3">
         <f t="shared" si="12"/>
-        <v>41469</v>
+        <v>41321</v>
       </c>
       <c r="F322">
         <f t="shared" si="13"/>
@@ -9324,9 +9344,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E323" s="4">
+      <c r="E323" s="3">
         <f t="shared" ref="E323:E370" si="15">A323-$A$2+$H$2</f>
-        <v>41470</v>
+        <v>41322</v>
       </c>
       <c r="F323">
         <f t="shared" ref="F323:F370" si="16">B323</f>
@@ -9344,9 +9364,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E324" s="4">
+      <c r="E324" s="3">
         <f t="shared" si="15"/>
-        <v>41471</v>
+        <v>41323</v>
       </c>
       <c r="F324">
         <f t="shared" si="16"/>
@@ -9364,9 +9384,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E325" s="4">
+      <c r="E325" s="3">
         <f t="shared" si="15"/>
-        <v>41472</v>
+        <v>41324</v>
       </c>
       <c r="F325">
         <f t="shared" si="16"/>
@@ -9384,9 +9404,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E326" s="3">
         <f t="shared" si="15"/>
-        <v>41473</v>
+        <v>41325</v>
       </c>
       <c r="F326">
         <f t="shared" si="16"/>
@@ -9404,9 +9424,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E327" s="4">
+      <c r="E327" s="3">
         <f t="shared" si="15"/>
-        <v>41474</v>
+        <v>41326</v>
       </c>
       <c r="F327">
         <f t="shared" si="16"/>
@@ -9424,9 +9444,9 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="E328" s="4">
+      <c r="E328" s="3">
         <f t="shared" si="15"/>
-        <v>41475</v>
+        <v>41327</v>
       </c>
       <c r="F328">
         <f t="shared" si="16"/>
@@ -9444,9 +9464,9 @@
         <f t="shared" ref="C329:C337" si="17">A329-A328</f>
         <v>1</v>
       </c>
-      <c r="E329" s="4">
+      <c r="E329" s="3">
         <f t="shared" si="15"/>
-        <v>41476</v>
+        <v>41328</v>
       </c>
       <c r="F329">
         <f t="shared" si="16"/>
@@ -9464,9 +9484,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E330" s="4">
+      <c r="E330" s="3">
         <f t="shared" si="15"/>
-        <v>41477</v>
+        <v>41329</v>
       </c>
       <c r="F330">
         <f t="shared" si="16"/>
@@ -9484,9 +9504,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E331" s="4">
+      <c r="E331" s="3">
         <f t="shared" si="15"/>
-        <v>41478</v>
+        <v>41330</v>
       </c>
       <c r="F331">
         <f t="shared" si="16"/>
@@ -9504,9 +9524,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E332" s="4">
+      <c r="E332" s="3">
         <f t="shared" si="15"/>
-        <v>41479</v>
+        <v>41331</v>
       </c>
       <c r="F332">
         <f t="shared" si="16"/>
@@ -9524,9 +9544,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E333" s="4">
+      <c r="E333" s="3">
         <f t="shared" si="15"/>
-        <v>41480</v>
+        <v>41332</v>
       </c>
       <c r="F333">
         <f t="shared" si="16"/>
@@ -9544,9 +9564,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E334" s="4">
+      <c r="E334" s="3">
         <f t="shared" si="15"/>
-        <v>41481</v>
+        <v>41333</v>
       </c>
       <c r="F334">
         <f t="shared" si="16"/>
@@ -9564,9 +9584,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E335" s="4">
+      <c r="E335" s="3">
         <f t="shared" si="15"/>
-        <v>41482</v>
+        <v>41334</v>
       </c>
       <c r="F335">
         <f t="shared" si="16"/>
@@ -9584,9 +9604,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E336" s="4">
+      <c r="E336" s="3">
         <f t="shared" si="15"/>
-        <v>41483</v>
+        <v>41335</v>
       </c>
       <c r="F336">
         <f t="shared" si="16"/>
@@ -9604,9 +9624,9 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="E337" s="4">
+      <c r="E337" s="3">
         <f t="shared" si="15"/>
-        <v>41484</v>
+        <v>41336</v>
       </c>
       <c r="F337">
         <f t="shared" si="16"/>
@@ -9624,9 +9644,9 @@
         <f t="shared" ref="C338:C370" si="18">A338-A337</f>
         <v>1</v>
       </c>
-      <c r="E338" s="4">
+      <c r="E338" s="3">
         <f t="shared" si="15"/>
-        <v>41485</v>
+        <v>41337</v>
       </c>
       <c r="F338">
         <f t="shared" si="16"/>
@@ -9644,9 +9664,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E339" s="4">
+      <c r="E339" s="3">
         <f t="shared" si="15"/>
-        <v>41486</v>
+        <v>41338</v>
       </c>
       <c r="F339">
         <f t="shared" si="16"/>
@@ -9664,9 +9684,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E340" s="4">
+      <c r="E340" s="3">
         <f t="shared" si="15"/>
-        <v>41487</v>
+        <v>41339</v>
       </c>
       <c r="F340">
         <f t="shared" si="16"/>
@@ -9684,9 +9704,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E341" s="4">
+      <c r="E341" s="3">
         <f t="shared" si="15"/>
-        <v>41488</v>
+        <v>41340</v>
       </c>
       <c r="F341">
         <f t="shared" si="16"/>
@@ -9704,9 +9724,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E342" s="4">
+      <c r="E342" s="3">
         <f t="shared" si="15"/>
-        <v>41489</v>
+        <v>41341</v>
       </c>
       <c r="F342">
         <f t="shared" si="16"/>
@@ -9724,9 +9744,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E343" s="4">
+      <c r="E343" s="3">
         <f t="shared" si="15"/>
-        <v>41490</v>
+        <v>41342</v>
       </c>
       <c r="F343">
         <f t="shared" si="16"/>
@@ -9744,9 +9764,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E344" s="4">
+      <c r="E344" s="3">
         <f t="shared" si="15"/>
-        <v>41491</v>
+        <v>41343</v>
       </c>
       <c r="F344">
         <f t="shared" si="16"/>
@@ -9764,9 +9784,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E345" s="4">
+      <c r="E345" s="3">
         <f t="shared" si="15"/>
-        <v>41492</v>
+        <v>41344</v>
       </c>
       <c r="F345">
         <f t="shared" si="16"/>
@@ -9784,9 +9804,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E346" s="4">
+      <c r="E346" s="3">
         <f t="shared" si="15"/>
-        <v>41493</v>
+        <v>41345</v>
       </c>
       <c r="F346">
         <f t="shared" si="16"/>
@@ -9804,9 +9824,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E347" s="4">
+      <c r="E347" s="3">
         <f t="shared" si="15"/>
-        <v>41494</v>
+        <v>41346</v>
       </c>
       <c r="F347">
         <f t="shared" si="16"/>
@@ -9824,9 +9844,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E348" s="4">
+      <c r="E348" s="3">
         <f t="shared" si="15"/>
-        <v>41495</v>
+        <v>41347</v>
       </c>
       <c r="F348">
         <f t="shared" si="16"/>
@@ -9844,9 +9864,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E349" s="4">
+      <c r="E349" s="3">
         <f t="shared" si="15"/>
-        <v>41496</v>
+        <v>41348</v>
       </c>
       <c r="F349">
         <f t="shared" si="16"/>
@@ -9864,9 +9884,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E350" s="4">
+      <c r="E350" s="3">
         <f t="shared" si="15"/>
-        <v>41497</v>
+        <v>41349</v>
       </c>
       <c r="F350">
         <f t="shared" si="16"/>
@@ -9884,9 +9904,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E351" s="4">
+      <c r="E351" s="3">
         <f t="shared" si="15"/>
-        <v>41498</v>
+        <v>41350</v>
       </c>
       <c r="F351">
         <f t="shared" si="16"/>
@@ -9904,9 +9924,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E352" s="4">
+      <c r="E352" s="3">
         <f t="shared" si="15"/>
-        <v>41499</v>
+        <v>41351</v>
       </c>
       <c r="F352">
         <f t="shared" si="16"/>
@@ -9924,9 +9944,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E353" s="4">
+      <c r="E353" s="3">
         <f t="shared" si="15"/>
-        <v>41500</v>
+        <v>41352</v>
       </c>
       <c r="F353">
         <f t="shared" si="16"/>
@@ -9944,9 +9964,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E354" s="4">
+      <c r="E354" s="3">
         <f t="shared" si="15"/>
-        <v>41501</v>
+        <v>41353</v>
       </c>
       <c r="F354">
         <f t="shared" si="16"/>
@@ -9964,9 +9984,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E355" s="4">
+      <c r="E355" s="3">
         <f t="shared" si="15"/>
-        <v>41502</v>
+        <v>41354</v>
       </c>
       <c r="F355">
         <f t="shared" si="16"/>
@@ -9984,9 +10004,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E356" s="4">
+      <c r="E356" s="3">
         <f t="shared" si="15"/>
-        <v>41503</v>
+        <v>41355</v>
       </c>
       <c r="F356">
         <f t="shared" si="16"/>
@@ -10004,9 +10024,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E357" s="4">
+      <c r="E357" s="3">
         <f t="shared" si="15"/>
-        <v>41504</v>
+        <v>41356</v>
       </c>
       <c r="F357">
         <f t="shared" si="16"/>
@@ -10024,9 +10044,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E358" s="4">
+      <c r="E358" s="3">
         <f t="shared" si="15"/>
-        <v>41505</v>
+        <v>41357</v>
       </c>
       <c r="F358">
         <f t="shared" si="16"/>
@@ -10044,9 +10064,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E359" s="4">
+      <c r="E359" s="3">
         <f t="shared" si="15"/>
-        <v>41506</v>
+        <v>41358</v>
       </c>
       <c r="F359">
         <f t="shared" si="16"/>
@@ -10064,9 +10084,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E360" s="4">
+      <c r="E360" s="3">
         <f t="shared" si="15"/>
-        <v>41507</v>
+        <v>41359</v>
       </c>
       <c r="F360">
         <f t="shared" si="16"/>
@@ -10084,9 +10104,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E361" s="4">
+      <c r="E361" s="3">
         <f t="shared" si="15"/>
-        <v>41508</v>
+        <v>41360</v>
       </c>
       <c r="F361">
         <f t="shared" si="16"/>
@@ -10104,9 +10124,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E362" s="4">
+      <c r="E362" s="3">
         <f t="shared" si="15"/>
-        <v>41509</v>
+        <v>41361</v>
       </c>
       <c r="F362">
         <f t="shared" si="16"/>
@@ -10124,9 +10144,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E363" s="4">
+      <c r="E363" s="3">
         <f t="shared" si="15"/>
-        <v>41510</v>
+        <v>41362</v>
       </c>
       <c r="F363">
         <f t="shared" si="16"/>
@@ -10144,9 +10164,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E364" s="4">
+      <c r="E364" s="3">
         <f t="shared" si="15"/>
-        <v>41511</v>
+        <v>41363</v>
       </c>
       <c r="F364">
         <f t="shared" si="16"/>
@@ -10164,9 +10184,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E365" s="4">
+      <c r="E365" s="3">
         <f t="shared" si="15"/>
-        <v>41512</v>
+        <v>41364</v>
       </c>
       <c r="F365">
         <f t="shared" si="16"/>
@@ -10184,9 +10204,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E366" s="4">
+      <c r="E366" s="3">
         <f t="shared" si="15"/>
-        <v>41513</v>
+        <v>41365</v>
       </c>
       <c r="F366">
         <f t="shared" si="16"/>
@@ -10204,9 +10224,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E367" s="4">
+      <c r="E367" s="3">
         <f t="shared" si="15"/>
-        <v>41514</v>
+        <v>41366</v>
       </c>
       <c r="F367">
         <f t="shared" si="16"/>
@@ -10224,9 +10244,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E368" s="4">
+      <c r="E368" s="3">
         <f t="shared" si="15"/>
-        <v>41515</v>
+        <v>41367</v>
       </c>
       <c r="F368">
         <f t="shared" si="16"/>
@@ -10244,9 +10264,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E369" s="4">
+      <c r="E369" s="3">
         <f t="shared" si="15"/>
-        <v>41516</v>
+        <v>41368</v>
       </c>
       <c r="F369">
         <f t="shared" si="16"/>
@@ -10264,9 +10284,9 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="E370" s="4">
+      <c r="E370" s="3">
         <f t="shared" si="15"/>
-        <v>41517</v>
+        <v>41369</v>
       </c>
       <c r="F370">
         <f t="shared" si="16"/>
@@ -10274,11 +10294,11 @@
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="B371" s="5"/>
+      <c r="B371" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C370">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10287,6 +10307,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F370">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>110000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
